--- a/format.xlsx
+++ b/format.xlsx
@@ -1,20 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jezrr\Dev\YuGPT\back\YuGPT-Server\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A64EC1-1621-4EC1-99E7-6A61C96270CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NOVIEMBRE" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="NOVIEMBRE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">NOVIEMBRE!$A$1:$H$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">NOVIEMBRE!$A$1:$H$61</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -25,64 +41,61 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
-    <t xml:space="preserve">EMPRESA</t>
+    <t>EMPRESA</t>
   </si>
   <si>
-    <t xml:space="preserve">MES</t>
+    <t>MES</t>
   </si>
   <si>
-    <t xml:space="preserve">CUENTA</t>
+    <t>CUENTA</t>
   </si>
   <si>
-    <t xml:space="preserve">SALDO EN CONTABILIDAD AL</t>
+    <t>SALDO EN CONTABILIDAD AL</t>
   </si>
   <si>
-    <t xml:space="preserve">DEPOSITOS (+)</t>
+    <t>DEPOSITOS (+)</t>
   </si>
   <si>
-    <t xml:space="preserve">RETIROS (-)</t>
+    <t>RETIROS (-)</t>
   </si>
   <si>
-    <t xml:space="preserve">SALDO SEGÚN CONTABILIDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SALDO EN ESTADO DE CUENTA</t>
+    <t>SALDO EN ESTADO DE CUENTA</t>
   </si>
   <si>
     <t xml:space="preserve">        </t>
   </si>
   <si>
-    <t xml:space="preserve">DEPOSITOS EN TRANSITO (+)</t>
+    <t>DEPOSITOS EN TRANSITO (+)</t>
   </si>
   <si>
-    <t xml:space="preserve">CHEQUES EN TRANSITO (-)</t>
+    <t>CHEQUES EN TRANSITO (-)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t xml:space="preserve">SALDO EN BANCOS</t>
+    <t>SALDO EN BANCOS</t>
   </si>
   <si>
-    <t xml:space="preserve">DIFERENCIA</t>
+    <t>SALDO EN LIBROS</t>
+  </si>
+  <si>
+    <t>SOBRANTE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="@"/>
-    <numFmt numFmtId="167" formatCode="mmm\-yy"/>
-    <numFmt numFmtId="168" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="170" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* \-??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -91,28 +104,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -120,7 +118,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
@@ -128,7 +126,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -149,7 +147,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="8"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
@@ -163,27 +161,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -198,279 +183,114 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+  <borders count="4">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double"/>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="36">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="47">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="17" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="4" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="7" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="5">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Comma 2" xfId="20"/>
-    <cellStyle name="Normal 2" xfId="21"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -529,32 +349,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FF7030A0"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E47" activeCellId="0" sqref="E47"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.43"/>
+    <col min="4" max="4" width="7.53125" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -570,7 +720,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -586,7 +736,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -602,10 +752,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -619,7 +769,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -635,7 +785,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -649,7 +799,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -663,7 +813,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
         <v>4</v>
@@ -673,8 +823,8 @@
       <c r="E9" s="5"/>
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="19" t="n">
-        <f aca="false">+A12</f>
+      <c r="H9" s="19">
+        <f>SUM(A10:G15)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
@@ -682,15 +832,15 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="20"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="9"/>
@@ -698,14 +848,14 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27"/>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="21"/>
       <c r="E11" s="20"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="28"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="9"/>
@@ -713,65 +863,65 @@
       <c r="M11" s="1"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29"/>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="20"/>
       <c r="B12" s="21"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="20"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="28"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="9"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="20"/>
       <c r="B13" s="21"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="32"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="20"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="28"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="9"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="33"/>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="21"/>
       <c r="E14" s="20"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="28"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="9"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="28"/>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="9"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" s="21"/>
-      <c r="B16" s="35"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
@@ -783,9 +933,9 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A17" s="21"/>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="25" t="s">
         <v>5</v>
       </c>
       <c r="C17" s="21"/>
@@ -793,8 +943,8 @@
       <c r="E17" s="22"/>
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="37" t="n">
-        <f aca="false">SUM(E12:G21)</f>
+      <c r="H17" s="26">
+        <f>SUM(A18:G23)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -802,90 +952,90 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
       <c r="D18" s="21"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="23"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="9"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="25"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="27"/>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="21"/>
       <c r="E19" s="20"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="28"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
       <c r="K19" s="9"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="20"/>
       <c r="B20" s="21"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="21"/>
       <c r="E20" s="20"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="28"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="9"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="20"/>
       <c r="B21" s="21"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="21"/>
       <c r="E21" s="20"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="28"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
       <c r="K21" s="9"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="33"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="20"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
       <c r="E22" s="20"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="28"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
       <c r="K22" s="9"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="38"/>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="20"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="27"/>
       <c r="I23" s="1"/>
       <c r="J23" s="13"/>
       <c r="K23" s="9"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -898,13 +1048,13 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="12" t="n">
-        <f aca="false">+H6+H9-H17</f>
+      <c r="H25" s="12">
+        <f>+H6+H9-H17</f>
         <v>0</v>
       </c>
       <c r="I25" s="1"/>
@@ -912,21 +1062,21 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
       <c r="I26" s="1"/>
       <c r="J26" s="13"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -935,19 +1085,19 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="41"/>
+      <c r="I27" s="30"/>
       <c r="J27" s="13"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="43"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="32"/>
       <c r="G28" s="21"/>
       <c r="H28" s="12"/>
       <c r="I28" s="1"/>
@@ -955,7 +1105,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -964,14 +1114,14 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -985,18 +1135,18 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="19" t="n">
-        <f aca="false">SUM(A32:G38)</f>
+      <c r="H31" s="19">
+        <f>SUM(A32:G37)</f>
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
@@ -1004,90 +1154,90 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
       <c r="D32" s="21"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="9"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="25"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="27"/>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" s="20"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="20"/>
       <c r="D33" s="21"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="28"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="20"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="9"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" s="20"/>
       <c r="B34" s="21"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="20"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="28"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="20"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="22"/>
       <c r="L34" s="1"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" s="20"/>
       <c r="B35" s="21"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="32"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="20"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="28"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="20"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="21"/>
       <c r="L35" s="1"/>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="33"/>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A36" s="20"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="20"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="28"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="20"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="22"/>
       <c r="L36" s="1"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="28"/>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A37" s="20"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="20"/>
       <c r="H37" s="9"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="22"/>
       <c r="L37" s="1"/>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
@@ -1101,18 +1251,18 @@
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A39" s="9"/>
-      <c r="B39" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
-      <c r="H39" s="37" t="n">
-        <f aca="false">SUM(A40:G44)</f>
+      <c r="H39" s="26">
+        <f>SUM(A40:G45)</f>
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
@@ -1120,89 +1270,89 @@
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
       <c r="D40" s="21"/>
       <c r="E40" s="20"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="23"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="20"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="22"/>
       <c r="L40" s="1"/>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="25"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="27"/>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="20"/>
       <c r="D41" s="21"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="28"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="22"/>
       <c r="L41" s="1"/>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A42" s="20"/>
       <c r="B42" s="21"/>
-      <c r="C42" s="30"/>
-      <c r="D42" s="30"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="21"/>
       <c r="E42" s="20"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="28"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="22"/>
       <c r="L42" s="1"/>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A43" s="20"/>
       <c r="B43" s="21"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="32"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="21"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="28"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="33"/>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A44" s="20"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="21"/>
       <c r="E44" s="20"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="28"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="34"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="28"/>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A45" s="20"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="20"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1210,14 +1360,14 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E47" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="45" t="n">
-        <f aca="false">SUM(H28+H31-H39)</f>
+      <c r="H47" s="34">
+        <f>SUM(H28+H31-H39)</f>
         <v>0</v>
       </c>
       <c r="I47" s="1"/>
@@ -1225,14 +1375,14 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="46" t="n">
-        <f aca="false">+H47-H25</f>
+      <c r="H48" s="35">
+        <f>+H47-H25</f>
         <v>0</v>
       </c>
       <c r="I48" s="1"/>
@@ -1240,16 +1390,12 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="9:9" x14ac:dyDescent="0.45">
       <c r="I52" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="true"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.747916666666667" bottom="0.747916666666667" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="74" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70833333333333304" right="0.70833333333333304" top="0.74791666666666701" bottom="0.74791666666666701" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/format.xlsx
+++ b/format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jezrr\Dev\YuGPT\back\YuGPT-Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f1a75cf433d042/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A64EC1-1621-4EC1-99E7-6A61C96270CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="8_{1658749F-1375-4E6A-A401-979035052B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE03ED7A-FAD4-4D69-9E9C-5C2E394A84F5}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NOVIEMBRE" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -87,15 +85,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* \-??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* \-??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* \-??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -222,7 +218,7 @@
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -248,7 +244,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="7" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -263,8 +259,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -272,20 +268,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
@@ -371,7 +367,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -690,21 +686,21 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.296875" defaultRowHeight="13.8"/>
   <cols>
-    <col min="4" max="4" width="7.53125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="12.296875" customWidth="1"/>
     <col min="8" max="8" width="13.796875" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -720,7 +716,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:15">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -736,7 +732,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -752,10 +748,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -769,7 +765,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:15">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -785,7 +781,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:15">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -799,7 +795,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:15">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -813,7 +809,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:15">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
         <v>4</v>
@@ -824,7 +820,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19">
-        <f>SUM(A10:G15)</f>
+        <f>SUM(A10:G15, I10:O15)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
@@ -832,7 +828,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:15">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -841,14 +837,15 @@
       <c r="F10" s="21"/>
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
-      <c r="I10" s="1"/>
+      <c r="I10" s="20"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="5"/>
-      <c r="M10" s="1"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -856,14 +853,15 @@
       <c r="E11" s="20"/>
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
-      <c r="I11" s="1"/>
+      <c r="I11" s="20"/>
       <c r="J11" s="1"/>
-      <c r="K11" s="9"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="1"/>
+      <c r="M11" s="20"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="20"/>
@@ -872,12 +870,14 @@
       <c r="F12" s="21"/>
       <c r="G12" s="20"/>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="20"/>
       <c r="J12" s="1"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="9"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -886,12 +886,14 @@
       <c r="F13" s="21"/>
       <c r="G13" s="20"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="I13" s="20"/>
       <c r="J13" s="1"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -900,12 +902,14 @@
       <c r="F14" s="21"/>
       <c r="G14" s="20"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="I14" s="20"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="20"/>
       <c r="L14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -914,12 +918,14 @@
       <c r="F15" s="21"/>
       <c r="G15" s="20"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="I15" s="20"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="M15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="21"/>
       <c r="B16" s="24"/>
       <c r="C16" s="21"/>
@@ -933,7 +939,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:15">
       <c r="A17" s="21"/>
       <c r="B17" s="25" t="s">
         <v>5</v>
@@ -944,7 +950,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
       <c r="H17" s="26">
-        <f>SUM(A18:G23)</f>
+        <f>SUM(A18:G23, I18:O23)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -952,7 +958,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:15">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -961,12 +967,15 @@
       <c r="F18" s="21"/>
       <c r="G18" s="20"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="20"/>
       <c r="J18" s="1"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K18" s="20"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -975,12 +984,15 @@
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
       <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="I19" s="20"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K19" s="20"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -989,12 +1001,14 @@
       <c r="F20" s="21"/>
       <c r="G20" s="20"/>
       <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="I20" s="20"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="9"/>
+      <c r="K20" s="20"/>
       <c r="L20" s="9"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20" s="20"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -1003,12 +1017,14 @@
       <c r="F21" s="21"/>
       <c r="G21" s="20"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="I21" s="20"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="9"/>
+      <c r="K21" s="20"/>
       <c r="L21" s="9"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21" s="20"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -1016,12 +1032,14 @@
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
-      <c r="I22" s="1"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="9"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="9"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M22" s="20"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -1030,12 +1048,14 @@
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
       <c r="H23" s="27"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="9"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M23" s="20"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1048,7 +1068,7 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:15">
       <c r="E25" s="2" t="s">
         <v>12</v>
       </c>
@@ -1062,7 +1082,7 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:15">
       <c r="A26" s="28"/>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -1076,7 +1096,7 @@
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:15">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1090,7 +1110,7 @@
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:15">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
@@ -1105,7 +1125,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:15">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1121,7 +1141,7 @@
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:15">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1135,7 +1155,7 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:15">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
         <v>8</v>
@@ -1146,7 +1166,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="19">
-        <f>SUM(A32:G37)</f>
+        <f>SUM(A32:G37, I32:O37)</f>
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
@@ -1154,7 +1174,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:15">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -1163,12 +1183,14 @@
       <c r="F32" s="21"/>
       <c r="G32" s="20"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="I32" s="20"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="9"/>
+      <c r="K32" s="20"/>
       <c r="L32" s="9"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M32" s="20"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="20"/>
@@ -1177,12 +1199,14 @@
       <c r="F33" s="21"/>
       <c r="G33" s="20"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="I33" s="20"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="9"/>
+      <c r="K33" s="20"/>
       <c r="L33" s="9"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M33" s="20"/>
+      <c r="O33" s="20"/>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="20"/>
@@ -1191,12 +1215,14 @@
       <c r="F34" s="21"/>
       <c r="G34" s="20"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="20"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="22"/>
+      <c r="K34" s="20"/>
       <c r="L34" s="1"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M34" s="20"/>
+      <c r="O34" s="20"/>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="20"/>
@@ -1205,12 +1231,14 @@
       <c r="F35" s="21"/>
       <c r="G35" s="20"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="I35" s="20"/>
       <c r="J35" s="1"/>
-      <c r="K35" s="21"/>
+      <c r="K35" s="20"/>
       <c r="L35" s="1"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M35" s="20"/>
+      <c r="O35" s="20"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -1218,12 +1246,14 @@
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
-      <c r="I36" s="1"/>
+      <c r="I36" s="20"/>
       <c r="J36" s="1"/>
-      <c r="K36" s="22"/>
+      <c r="K36" s="20"/>
       <c r="L36" s="1"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M36" s="20"/>
+      <c r="O36" s="20"/>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="20"/>
@@ -1232,12 +1262,14 @@
       <c r="F37" s="21"/>
       <c r="G37" s="20"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="1"/>
+      <c r="I37" s="20"/>
       <c r="J37" s="1"/>
-      <c r="K37" s="22"/>
+      <c r="K37" s="20"/>
       <c r="L37" s="1"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M37" s="20"/>
+      <c r="O37" s="20"/>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
@@ -1251,7 +1283,7 @@
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:15">
       <c r="A39" s="9"/>
       <c r="B39" s="25" t="s">
         <v>9</v>
@@ -1262,7 +1294,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="26">
-        <f>SUM(A40:G45)</f>
+        <f>SUM(A40:G45, I40:O45)</f>
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
@@ -1270,7 +1302,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:15">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -1278,12 +1310,14 @@
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="20"/>
-      <c r="I40" s="1"/>
+      <c r="I40" s="20"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="1"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K40" s="20"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="20"/>
+      <c r="O40" s="20"/>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="20"/>
@@ -1292,12 +1326,14 @@
       <c r="F41" s="21"/>
       <c r="G41" s="20"/>
       <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="I41" s="20"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="1"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K41" s="20"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="20"/>
+      <c r="O41" s="20"/>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="20"/>
@@ -1306,12 +1342,14 @@
       <c r="F42" s="21"/>
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="I42" s="20"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="22"/>
+      <c r="K42" s="20"/>
       <c r="L42" s="1"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M42" s="20"/>
+      <c r="O42" s="20"/>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="20"/>
@@ -1322,12 +1360,14 @@
       <c r="H43" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I43" s="1"/>
+      <c r="I43" s="20"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="20"/>
       <c r="L43" s="1"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M43" s="20"/>
+      <c r="O43" s="20"/>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -1336,12 +1376,14 @@
       <c r="F44" s="21"/>
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="I44" s="20"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+      <c r="K44" s="20"/>
       <c r="L44" s="1"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M44" s="20"/>
+      <c r="O44" s="20"/>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="20"/>
@@ -1349,10 +1391,14 @@
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
       <c r="G45" s="20"/>
-      <c r="I45" s="1"/>
+      <c r="I45" s="20"/>
       <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="K45" s="20"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="20"/>
+      <c r="O45" s="20"/>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1360,7 +1406,7 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:15">
       <c r="E47" s="2" t="s">
         <v>11</v>
       </c>
@@ -1375,7 +1421,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:15">
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
@@ -1390,7 +1436,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="9:9">
       <c r="I52" s="2"/>
     </row>
   </sheetData>

--- a/format.xlsx
+++ b/format.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29318"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f1a75cf433d042/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/76f1a75cf433d042/Documentos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="8_{1658749F-1375-4E6A-A401-979035052B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE03ED7A-FAD4-4D69-9E9C-5C2E394A84F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3583C0AB-3D2F-42F9-9C2E-D823EE7C4E97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,11 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">NOVIEMBRE!$A$1:$H$61</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -27,6 +30,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -57,6 +62,9 @@
     <t>RETIROS (-)</t>
   </si>
   <si>
+    <t>SALDO EN LIBROS</t>
+  </si>
+  <si>
     <t>SALDO EN ESTADO DE CUENTA</t>
   </si>
   <si>
@@ -73,9 +81,6 @@
   </si>
   <si>
     <t>SALDO EN BANCOS</t>
-  </si>
-  <si>
-    <t>SALDO EN LIBROS</t>
   </si>
   <si>
     <t>SOBRANTE</t>
@@ -222,7 +227,7 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="4" applyFont="1"/>
@@ -268,7 +273,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyProtection="1"/>
@@ -279,9 +283,9 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Comma 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
-    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
@@ -686,21 +690,21 @@
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
   </sheetPr>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:Z52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="54" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.296875" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="11.28515625" defaultRowHeight="13.9"/>
   <cols>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="12.296875" customWidth="1"/>
-    <col min="8" max="8" width="13.796875" customWidth="1"/>
-    <col min="9" max="9" width="12.296875" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:26">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -716,7 +720,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:26">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -732,7 +736,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:26">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>2</v>
@@ -748,10 +752,10 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:26">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:26">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -765,7 +769,7 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:26">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
         <v>3</v>
@@ -781,7 +785,7 @@
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:26">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="14"/>
@@ -795,7 +799,7 @@
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:26">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -809,7 +813,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:26">
       <c r="A9" s="1"/>
       <c r="B9" s="15" t="s">
         <v>4</v>
@@ -820,7 +824,7 @@
       <c r="F9" s="17"/>
       <c r="G9" s="18"/>
       <c r="H9" s="19">
-        <f>SUM(A10:G15, I10:O15)</f>
+        <f>SUM(A10:G15, I10:Z15)</f>
         <v>0</v>
       </c>
       <c r="I9" s="1"/>
@@ -828,7 +832,7 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:26">
       <c r="A10" s="20"/>
       <c r="B10" s="21"/>
       <c r="C10" s="20"/>
@@ -838,14 +842,24 @@
       <c r="G10" s="20"/>
       <c r="H10" s="23"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="1"/>
+      <c r="J10" s="21"/>
       <c r="K10" s="20"/>
-      <c r="L10" s="5"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="20"/>
-      <c r="N10" s="1"/>
+      <c r="N10" s="21"/>
       <c r="O10" s="20"/>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="21"/>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" s="20"/>
       <c r="B11" s="21"/>
       <c r="C11" s="20"/>
@@ -854,14 +868,24 @@
       <c r="F11" s="21"/>
       <c r="G11" s="20"/>
       <c r="I11" s="20"/>
-      <c r="J11" s="1"/>
+      <c r="J11" s="21"/>
       <c r="K11" s="20"/>
-      <c r="L11" s="2"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="20"/>
-      <c r="N11" s="2"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="20"/>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="21"/>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" s="20"/>
       <c r="B12" s="21"/>
       <c r="C12" s="20"/>
@@ -871,13 +895,24 @@
       <c r="G12" s="20"/>
       <c r="H12" s="1"/>
       <c r="I12" s="20"/>
-      <c r="J12" s="1"/>
+      <c r="J12" s="21"/>
       <c r="K12" s="20"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="20"/>
+      <c r="N12" s="21"/>
       <c r="O12" s="20"/>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="21"/>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" s="20"/>
       <c r="B13" s="21"/>
       <c r="C13" s="20"/>
@@ -887,13 +922,24 @@
       <c r="G13" s="20"/>
       <c r="H13" s="1"/>
       <c r="I13" s="20"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="21"/>
       <c r="K13" s="20"/>
-      <c r="L13" s="9"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="20"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="20"/>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="Q13" s="20"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="20"/>
+      <c r="X13" s="21"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="21"/>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" s="20"/>
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
@@ -903,13 +949,24 @@
       <c r="G14" s="20"/>
       <c r="H14" s="1"/>
       <c r="I14" s="20"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="21"/>
       <c r="K14" s="20"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="21"/>
       <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
       <c r="O14" s="20"/>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="21"/>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" s="20"/>
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
@@ -919,13 +976,24 @@
       <c r="G15" s="20"/>
       <c r="H15" s="1"/>
       <c r="I15" s="20"/>
-      <c r="J15" s="1"/>
+      <c r="J15" s="21"/>
       <c r="K15" s="20"/>
-      <c r="L15" s="9"/>
+      <c r="L15" s="21"/>
       <c r="M15" s="20"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="20"/>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="20"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="20"/>
+      <c r="X15" s="21"/>
+      <c r="Y15" s="20"/>
+      <c r="Z15" s="21"/>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" s="21"/>
       <c r="B16" s="24"/>
       <c r="C16" s="21"/>
@@ -939,7 +1007,7 @@
       <c r="K16" s="9"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:26">
       <c r="A17" s="21"/>
       <c r="B17" s="25" t="s">
         <v>5</v>
@@ -950,7 +1018,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="9"/>
       <c r="H17" s="26">
-        <f>SUM(A18:G23, I18:O23)</f>
+        <f>SUM(A18:G23, I18:Z23)</f>
         <v>0</v>
       </c>
       <c r="I17" s="1"/>
@@ -958,7 +1026,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:26">
       <c r="A18" s="20"/>
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
@@ -966,16 +1034,26 @@
       <c r="E18" s="20"/>
       <c r="F18" s="21"/>
       <c r="G18" s="20"/>
-      <c r="H18" s="1"/>
+      <c r="H18" s="23"/>
       <c r="I18" s="20"/>
-      <c r="J18" s="1"/>
+      <c r="J18" s="21"/>
       <c r="K18" s="20"/>
-      <c r="L18" s="5"/>
+      <c r="L18" s="21"/>
       <c r="M18" s="20"/>
-      <c r="N18" s="1"/>
+      <c r="N18" s="21"/>
       <c r="O18" s="20"/>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="Q18" s="20"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="21"/>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" s="20"/>
       <c r="B19" s="21"/>
       <c r="C19" s="20"/>
@@ -983,16 +1061,25 @@
       <c r="E19" s="20"/>
       <c r="F19" s="21"/>
       <c r="G19" s="20"/>
-      <c r="H19" s="1"/>
       <c r="I19" s="20"/>
-      <c r="J19" s="1"/>
+      <c r="J19" s="21"/>
       <c r="K19" s="20"/>
-      <c r="L19" s="2"/>
+      <c r="L19" s="21"/>
       <c r="M19" s="20"/>
-      <c r="N19" s="2"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="20"/>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="Q19" s="20"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="21"/>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" s="20"/>
       <c r="B20" s="21"/>
       <c r="C20" s="20"/>
@@ -1002,13 +1089,24 @@
       <c r="G20" s="20"/>
       <c r="H20" s="1"/>
       <c r="I20" s="20"/>
-      <c r="J20" s="1"/>
+      <c r="J20" s="21"/>
       <c r="K20" s="20"/>
-      <c r="L20" s="9"/>
+      <c r="L20" s="21"/>
       <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
       <c r="O20" s="20"/>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="Q20" s="20"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="21"/>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" s="20"/>
       <c r="B21" s="21"/>
       <c r="C21" s="20"/>
@@ -1018,13 +1116,24 @@
       <c r="G21" s="20"/>
       <c r="H21" s="1"/>
       <c r="I21" s="20"/>
-      <c r="J21" s="1"/>
+      <c r="J21" s="21"/>
       <c r="K21" s="20"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="21"/>
       <c r="M21" s="20"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="20"/>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="Q21" s="20"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="21"/>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" s="20"/>
       <c r="B22" s="21"/>
       <c r="C22" s="20"/>
@@ -1032,14 +1141,26 @@
       <c r="E22" s="20"/>
       <c r="F22" s="21"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="1"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="1"/>
+      <c r="J22" s="21"/>
       <c r="K22" s="20"/>
-      <c r="L22" s="9"/>
+      <c r="L22" s="21"/>
       <c r="M22" s="20"/>
+      <c r="N22" s="21"/>
       <c r="O22" s="20"/>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="Q22" s="20"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="21"/>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
       <c r="C23" s="20"/>
@@ -1047,15 +1168,26 @@
       <c r="E23" s="20"/>
       <c r="F23" s="21"/>
       <c r="G23" s="20"/>
-      <c r="H23" s="27"/>
+      <c r="H23" s="1"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="21"/>
       <c r="K23" s="20"/>
-      <c r="L23" s="9"/>
+      <c r="L23" s="21"/>
       <c r="M23" s="20"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="20"/>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="Q23" s="20"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="21"/>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1068,9 +1200,9 @@
       <c r="K24" s="9"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:26">
       <c r="E25" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="12">
@@ -1082,21 +1214,21 @@
       <c r="K25" s="9"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+    <row r="26" spans="1:26">
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="1"/>
       <c r="J26" s="13"/>
       <c r="K26" s="9"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:26">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1105,19 +1237,19 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="30"/>
+      <c r="I27" s="29"/>
       <c r="J27" s="13"/>
       <c r="K27" s="9"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:26">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="32"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="31"/>
       <c r="G28" s="21"/>
       <c r="H28" s="12"/>
       <c r="I28" s="1"/>
@@ -1125,7 +1257,7 @@
       <c r="K28" s="9"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:26">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1134,14 +1266,14 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="9"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:26">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1155,10 +1287,10 @@
       <c r="K30" s="9"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:26">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1166,7 +1298,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="19">
-        <f>SUM(A32:G37, I32:O37)</f>
+        <f>SUM(A32:G37, I32:Z37)</f>
         <v>0</v>
       </c>
       <c r="I31" s="1"/>
@@ -1174,7 +1306,7 @@
       <c r="K31" s="9"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:26">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="20"/>
@@ -1182,15 +1314,26 @@
       <c r="E32" s="20"/>
       <c r="F32" s="21"/>
       <c r="G32" s="20"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="23"/>
       <c r="I32" s="20"/>
-      <c r="J32" s="1"/>
+      <c r="J32" s="21"/>
       <c r="K32" s="20"/>
-      <c r="L32" s="9"/>
+      <c r="L32" s="21"/>
       <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
       <c r="O32" s="20"/>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="Q32" s="20"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="20"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="20"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="20"/>
+      <c r="Z32" s="21"/>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="20"/>
@@ -1198,15 +1341,25 @@
       <c r="E33" s="20"/>
       <c r="F33" s="21"/>
       <c r="G33" s="20"/>
-      <c r="H33" s="1"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="1"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="9"/>
+      <c r="L33" s="21"/>
       <c r="M33" s="20"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="20"/>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="Q33" s="20"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="20"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="21"/>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="20"/>
@@ -1216,13 +1369,24 @@
       <c r="G34" s="20"/>
       <c r="H34" s="1"/>
       <c r="I34" s="20"/>
-      <c r="J34" s="1"/>
+      <c r="J34" s="21"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="21"/>
       <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
       <c r="O34" s="20"/>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="Q34" s="20"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="20"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="20"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="20"/>
+      <c r="Z34" s="21"/>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" s="20"/>
       <c r="B35" s="21"/>
       <c r="C35" s="20"/>
@@ -1232,13 +1396,24 @@
       <c r="G35" s="20"/>
       <c r="H35" s="1"/>
       <c r="I35" s="20"/>
-      <c r="J35" s="1"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="20"/>
-      <c r="L35" s="1"/>
+      <c r="L35" s="21"/>
       <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="20"/>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="Q35" s="20"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="20"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="20"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="20"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="20"/>
+      <c r="Z35" s="21"/>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" s="20"/>
       <c r="B36" s="21"/>
       <c r="C36" s="20"/>
@@ -1246,14 +1421,26 @@
       <c r="E36" s="20"/>
       <c r="F36" s="21"/>
       <c r="G36" s="20"/>
+      <c r="H36" s="1"/>
       <c r="I36" s="20"/>
-      <c r="J36" s="1"/>
+      <c r="J36" s="21"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="21"/>
       <c r="M36" s="20"/>
+      <c r="N36" s="21"/>
       <c r="O36" s="20"/>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="Q36" s="20"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="20"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="20"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="20"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="20"/>
+      <c r="Z36" s="21"/>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" s="20"/>
       <c r="B37" s="21"/>
       <c r="C37" s="20"/>
@@ -1261,15 +1448,26 @@
       <c r="E37" s="20"/>
       <c r="F37" s="21"/>
       <c r="G37" s="20"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="1"/>
       <c r="I37" s="20"/>
-      <c r="J37" s="1"/>
+      <c r="J37" s="21"/>
       <c r="K37" s="20"/>
-      <c r="L37" s="1"/>
+      <c r="L37" s="21"/>
       <c r="M37" s="20"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="20"/>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="Q37" s="20"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="20"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="20"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="20"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="20"/>
+      <c r="Z37" s="21"/>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="1"/>
@@ -1283,18 +1481,18 @@
       <c r="K38" s="22"/>
       <c r="L38" s="1"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:26">
       <c r="A39" s="9"/>
       <c r="B39" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="9"/>
       <c r="H39" s="26">
-        <f>SUM(A40:G45, I40:O45)</f>
+        <f>SUM(A40:G45, I40:Z45)</f>
         <v>0</v>
       </c>
       <c r="I39" s="1"/>
@@ -1302,7 +1500,7 @@
       <c r="K39" s="22"/>
       <c r="L39" s="1"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:26">
       <c r="A40" s="20"/>
       <c r="B40" s="21"/>
       <c r="C40" s="20"/>
@@ -1310,14 +1508,26 @@
       <c r="E40" s="20"/>
       <c r="F40" s="21"/>
       <c r="G40" s="20"/>
+      <c r="H40" s="23"/>
       <c r="I40" s="20"/>
-      <c r="J40" s="1"/>
+      <c r="J40" s="21"/>
       <c r="K40" s="20"/>
-      <c r="L40" s="9"/>
+      <c r="L40" s="21"/>
       <c r="M40" s="20"/>
+      <c r="N40" s="21"/>
       <c r="O40" s="20"/>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="Q40" s="20"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="20"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="20"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="20"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="20"/>
+      <c r="Z40" s="21"/>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="20"/>
@@ -1325,15 +1535,25 @@
       <c r="E41" s="20"/>
       <c r="F41" s="21"/>
       <c r="G41" s="20"/>
-      <c r="H41" s="1"/>
       <c r="I41" s="20"/>
-      <c r="J41" s="1"/>
+      <c r="J41" s="21"/>
       <c r="K41" s="20"/>
-      <c r="L41" s="9"/>
+      <c r="L41" s="21"/>
       <c r="M41" s="20"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="20"/>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="Q41" s="20"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="20"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="20"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="20"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="20"/>
+      <c r="Z41" s="21"/>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" s="20"/>
       <c r="B42" s="21"/>
       <c r="C42" s="20"/>
@@ -1343,13 +1563,24 @@
       <c r="G42" s="20"/>
       <c r="H42" s="1"/>
       <c r="I42" s="20"/>
-      <c r="J42" s="1"/>
+      <c r="J42" s="21"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="21"/>
       <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
       <c r="O42" s="20"/>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="Q42" s="20"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="20"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="20"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="20"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="20"/>
+      <c r="Z42" s="21"/>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" s="20"/>
       <c r="B43" s="21"/>
       <c r="C43" s="20"/>
@@ -1357,17 +1588,28 @@
       <c r="E43" s="20"/>
       <c r="F43" s="21"/>
       <c r="G43" s="20"/>
-      <c r="H43" s="18" t="s">
-        <v>10</v>
+      <c r="H43" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="I43" s="20"/>
-      <c r="J43" s="1"/>
+      <c r="J43" s="21"/>
       <c r="K43" s="20"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="21"/>
       <c r="M43" s="20"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="20"/>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="Q43" s="20"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="20"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="20"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="20"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="20"/>
+      <c r="Z43" s="21"/>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" s="20"/>
       <c r="B44" s="21"/>
       <c r="C44" s="20"/>
@@ -1377,13 +1619,24 @@
       <c r="G44" s="20"/>
       <c r="H44" s="1"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="1"/>
+      <c r="J44" s="21"/>
       <c r="K44" s="20"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="21"/>
       <c r="M44" s="20"/>
+      <c r="N44" s="21"/>
       <c r="O44" s="20"/>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="Q44" s="20"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="20"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="21"/>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" s="20"/>
       <c r="B45" s="21"/>
       <c r="C45" s="20"/>
@@ -1391,14 +1644,26 @@
       <c r="E45" s="20"/>
       <c r="F45" s="21"/>
       <c r="G45" s="20"/>
+      <c r="H45" s="1"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="1"/>
+      <c r="J45" s="21"/>
       <c r="K45" s="20"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="21"/>
       <c r="M45" s="20"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="20"/>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="Q45" s="20"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="20"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="21"/>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" s="18"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18"/>
@@ -1406,13 +1671,13 @@
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:26">
       <c r="E47" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="34">
+      <c r="H47" s="33">
         <f>SUM(H28+H31-H39)</f>
         <v>0</v>
       </c>
@@ -1421,13 +1686,13 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:26">
       <c r="E48" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="35">
+      <c r="H48" s="34">
         <f>+H47-H25</f>
         <v>0</v>
       </c>
